--- a/docs/cor/checklist.xlsx
+++ b/docs/cor/checklist.xlsx
@@ -107,9 +107,6 @@
     <t>Objets limites</t>
   </si>
   <si>
-    <t>Découpe des objets selon axex X Y Z</t>
-  </si>
-  <si>
     <t>Rotation et translation fonctionne après découpe</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>Plusieurs objets du même type dans la scène? N'importe quelle position ou direction?</t>
+  </si>
+  <si>
+    <t>Découpe objet basiquement sur un des axes X Y Z</t>
   </si>
 </sst>
 </file>
@@ -450,44 +450,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -777,15 +777,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="108" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="1.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="171.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
@@ -793,18 +793,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -816,699 +816,712 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="14"/>
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="16"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="14"/>
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="17"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="6"/>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="12"/>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="12"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="12"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="12"/>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="12"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="6"/>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="12"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="6"/>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+      <c r="F17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="8"/>
+      <c r="F19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="12"/>
-      <c r="F17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="12"/>
-      <c r="F18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="12"/>
-      <c r="F19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
+      <c r="F21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="8"/>
+      <c r="F22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="12"/>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="8"/>
+      <c r="F23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="12"/>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="8"/>
+      <c r="F24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="12"/>
-      <c r="F24" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="8"/>
+      <c r="F28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="12"/>
-      <c r="F28" s="14" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="8"/>
+      <c r="F29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="12"/>
-      <c r="F29" s="14" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="8"/>
+      <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="12"/>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="8"/>
+      <c r="F31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="12"/>
-      <c r="F31" s="14" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="11" t="s">
+      <c r="F32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="G32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="G33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="8"/>
+      <c r="F34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="12"/>
-      <c r="F34" s="14" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="8"/>
+      <c r="F35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="12"/>
-      <c r="F35" s="14" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="8"/>
+      <c r="F36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="12"/>
-      <c r="F36" s="14" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="8"/>
+      <c r="F37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="12"/>
-      <c r="F37" s="14" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="12" t="s">
+      <c r="F38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="G38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="8"/>
+      <c r="F39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="12"/>
-      <c r="F39" s="14" t="s">
+      <c r="G39" s="7"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="8"/>
+      <c r="F40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="12"/>
-      <c r="F40" s="14" t="s">
+      <c r="G40" s="7"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="8"/>
+      <c r="F41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="12"/>
-      <c r="F41" s="14" t="s">
+      <c r="G41" s="7"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="G42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="11" t="s">
+      <c r="F43" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="G43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="11" t="s">
+      <c r="F44" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="G44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="12" t="s">
+      <c r="F45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="G45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="8"/>
+      <c r="F46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="12"/>
-      <c r="F46" s="14" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="8"/>
+      <c r="F47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="12"/>
-      <c r="F47" s="14" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="8"/>
+      <c r="F48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E48" s="12"/>
-      <c r="F48" s="14" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="8"/>
+      <c r="F49" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E49" s="12"/>
-      <c r="F49" s="14" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="12" t="s">
+      <c r="F50" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="G50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="8"/>
+      <c r="F51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E51" s="12"/>
-      <c r="F51" s="14" t="s">
+      <c r="G51" s="7"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="8"/>
+      <c r="F52" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="12"/>
-      <c r="F52" s="14" t="s">
+      <c r="G52" s="7"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="8"/>
+      <c r="F53" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="12"/>
-      <c r="F53" s="14" t="s">
+      <c r="G53" s="7"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E54" s="12" t="s">
+      <c r="F54" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="G54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="8"/>
+      <c r="F55" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="12"/>
-      <c r="F55" s="14" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="8"/>
+      <c r="F56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="12"/>
-      <c r="F56" s="14" t="s">
+      <c r="G56" s="7"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="8"/>
+      <c r="F57" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E57" s="12"/>
-      <c r="F57" s="14" t="s">
+      <c r="G57" s="7"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="8"/>
+      <c r="F58" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="12"/>
-      <c r="F58" s="14" t="s">
+      <c r="G58" s="7"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E59" s="11" t="s">
+      <c r="F59" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="G59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E60" s="12" t="s">
+      <c r="F60" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="G60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="8"/>
+      <c r="F61" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E61" s="12"/>
-      <c r="F61" s="14" t="s">
+      <c r="G61" s="7"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="8"/>
+      <c r="F62" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="12"/>
-      <c r="F62" s="14" t="s">
+      <c r="G62" s="7"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="8"/>
+      <c r="F63" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E63" s="12"/>
-      <c r="F63" s="14" t="s">
+      <c r="G63" s="7"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="8"/>
+      <c r="F64" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E64" s="12"/>
-      <c r="F64" s="14" t="s">
+      <c r="G64" s="7"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E65" s="12" t="s">
+      <c r="F65" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="G65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="8"/>
+      <c r="F66" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E66" s="12"/>
-      <c r="F66" s="14" t="s">
+      <c r="G66" s="7"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="8"/>
+      <c r="F67" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E67" s="12"/>
-      <c r="F67" s="14" t="s">
+      <c r="G67" s="7"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="8"/>
+      <c r="F68" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E68" s="12"/>
-      <c r="F68" s="14" t="s">
+      <c r="G68" s="7"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="8"/>
+      <c r="F69" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E69" s="12"/>
-      <c r="F69" s="14" t="s">
+      <c r="G69" s="7"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E70" s="11" t="s">
+      <c r="F70" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="G70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E71" s="11" t="s">
+      <c r="F71" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="G71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E72" s="11" t="s">
+      <c r="F72" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F72" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72" s="6"/>
+      <c r="G72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="G27:G31"/>
     <mergeCell ref="G65:G69"/>
     <mergeCell ref="E65:E69"/>
     <mergeCell ref="E1:H1"/>
@@ -1525,19 +1538,6 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="G38:G41"/>
     <mergeCell ref="E45:E49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="E12:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/cor/checklist.xlsx
+++ b/docs/cor/checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="32820" windowHeight="26740" tabRatio="500"/>
+    <workbookView xWindow="18380" yWindow="460" windowWidth="32820" windowHeight="26740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="110">
   <si>
     <t>RTv1</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>Découpe objet basiquement sur un des axes X Y Z</t>
+  </si>
+  <si>
+    <t>0 pt</t>
+  </si>
+  <si>
+    <t>1 pt</t>
+  </si>
+  <si>
+    <t>4 pts</t>
+  </si>
+  <si>
+    <t>2 pts</t>
   </si>
 </sst>
 </file>
@@ -465,10 +477,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -485,18 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="108" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,21 +804,21 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -826,62 +838,77 @@
         <v>4</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="8"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="10"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="8"/>
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="8"/>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
@@ -892,45 +919,48 @@
         <v>4</v>
       </c>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="8" t="s">
+      <c r="I7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="8"/>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="7"/>
       <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="8"/>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="7"/>
       <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="8"/>
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="7"/>
       <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="8" t="s">
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -940,9 +970,12 @@
         <v>4</v>
       </c>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="8"/>
+      <c r="I12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="7"/>
       <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
@@ -950,9 +983,12 @@
         <v>4</v>
       </c>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="8"/>
+      <c r="I13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="7"/>
       <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
@@ -960,9 +996,12 @@
         <v>4</v>
       </c>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="8"/>
+      <c r="I14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
         <v>25</v>
       </c>
@@ -970,88 +1009,118 @@
         <v>4</v>
       </c>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="8" t="s">
+      <c r="I15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="8"/>
+      <c r="I16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="7"/>
       <c r="F17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="8"/>
+      <c r="I17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="7"/>
       <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="8"/>
+      <c r="I18" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="8"/>
+      <c r="I19" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="7"/>
       <c r="F20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="8" t="s">
+      <c r="I20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="8"/>
+      <c r="I21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="7"/>
       <c r="F22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="8"/>
+      <c r="I22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="7"/>
       <c r="F23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="8"/>
+      <c r="I23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="7"/>
       <c r="F24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="4" t="s">
         <v>39</v>
       </c>
@@ -1062,8 +1131,11 @@
         <v>4</v>
       </c>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1074,52 +1146,70 @@
         <v>4</v>
       </c>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="8" t="s">
+      <c r="I26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="8"/>
+      <c r="I27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="7"/>
       <c r="F28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="8"/>
+      <c r="I28" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="7"/>
       <c r="F29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="8"/>
+      <c r="I29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="7"/>
       <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="8"/>
+      <c r="I30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="7"/>
       <c r="F31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="4" t="s">
         <v>48</v>
       </c>
@@ -1130,88 +1220,118 @@
         <v>4</v>
       </c>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="8" t="s">
+      <c r="I32" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="8"/>
+      <c r="I33" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="7"/>
       <c r="F34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="8"/>
+      <c r="I34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="7"/>
       <c r="F35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="8"/>
+      <c r="I35" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="7"/>
       <c r="F36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="8"/>
+      <c r="I36" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="7"/>
       <c r="F37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="8" t="s">
+      <c r="I37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="8"/>
+      <c r="I38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="7"/>
       <c r="F39" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="8"/>
+      <c r="I39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="7"/>
       <c r="F40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="8"/>
+      <c r="I40" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="7"/>
       <c r="F41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E42" s="4" t="s">
         <v>61</v>
       </c>
@@ -1222,8 +1342,11 @@
         <v>4</v>
       </c>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E43" s="4" t="s">
         <v>63</v>
       </c>
@@ -1234,8 +1357,11 @@
         <v>4</v>
       </c>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="4" t="s">
         <v>65</v>
       </c>
@@ -1246,132 +1372,177 @@
         <v>4</v>
       </c>
       <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="8" t="s">
+      <c r="I44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="8"/>
+      <c r="I45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="7"/>
       <c r="F46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="8"/>
+      <c r="I46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="7"/>
       <c r="F47" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="12"/>
       <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E48" s="8"/>
+      <c r="I47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="7"/>
       <c r="F48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="12"/>
       <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E49" s="8"/>
+      <c r="I48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="7"/>
       <c r="F49" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="8" t="s">
+      <c r="I49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E51" s="8"/>
+      <c r="I50" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="7"/>
       <c r="F51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="8"/>
+      <c r="I51" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="7"/>
       <c r="F52" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="8"/>
+      <c r="I52" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="7"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E54" s="8" t="s">
+      <c r="I53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="8"/>
+      <c r="I54" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="12"/>
       <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="8"/>
+      <c r="I55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="7"/>
       <c r="F56" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E57" s="8"/>
+      <c r="I56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="12"/>
       <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="8"/>
+      <c r="I57" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="7"/>
       <c r="F58" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I58" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="4" t="s">
         <v>84</v>
       </c>
@@ -1382,96 +1553,129 @@
         <v>4</v>
       </c>
       <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E60" s="8" t="s">
+      <c r="I59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E61" s="8"/>
+      <c r="I60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="7"/>
       <c r="F61" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="8"/>
+      <c r="I61" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="7"/>
       <c r="F62" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G62" s="7"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E63" s="8"/>
+      <c r="I62" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="7"/>
       <c r="F63" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G63" s="7"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E64" s="8"/>
+      <c r="I63" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="7"/>
       <c r="F64" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G64" s="7"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E65" s="8" t="s">
+      <c r="I64" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="12" t="s">
         <v>31</v>
       </c>
       <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E66" s="8"/>
+      <c r="I65" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="7"/>
       <c r="F66" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G66" s="7"/>
+      <c r="G66" s="12"/>
       <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E67" s="8"/>
+      <c r="I66" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="7"/>
       <c r="F67" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G67" s="7"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E68" s="8"/>
+      <c r="I67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="7"/>
       <c r="F68" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="7"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E69" s="8"/>
+      <c r="I68" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="7"/>
       <c r="F69" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="7"/>
+      <c r="G69" s="12"/>
       <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E70" s="4" t="s">
         <v>98</v>
       </c>
@@ -1482,8 +1686,11 @@
         <v>4</v>
       </c>
       <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E71" s="4" t="s">
         <v>100</v>
       </c>
@@ -1494,8 +1701,11 @@
         <v>4</v>
       </c>
       <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="5:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E72" s="4" t="s">
         <v>102</v>
       </c>
@@ -1506,22 +1716,12 @@
         <v>4</v>
       </c>
       <c r="H72" s="3"/>
+      <c r="I72" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="G27:G31"/>
     <mergeCell ref="G65:G69"/>
     <mergeCell ref="E65:E69"/>
     <mergeCell ref="E1:H1"/>
@@ -1538,6 +1738,19 @@
     <mergeCell ref="E38:E41"/>
     <mergeCell ref="G38:G41"/>
     <mergeCell ref="E45:E49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
